--- a/FeatureAnalysis.xlsx
+++ b/FeatureAnalysis.xlsx
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4977124183006536</v>
+        <v>0.5193267973856208</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02222512722075464</v>
+        <v>0.03924634652421178</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5034637318979879</v>
+        <v>0.5126931949250289</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>17.5</v>
+        <v>13.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1</v>
+        <v>10.9</v>
       </c>
       <c r="J2" t="n">
-        <v>49.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5045555555555555</v>
+        <v>0.5133464052287581</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01243179796809229</v>
+        <v>0.02718597603948867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4952766243752403</v>
+        <v>0.5107576252723312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.65</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="n">
-        <v>17.15</v>
+        <v>13.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4</v>
+        <v>11.75</v>
       </c>
       <c r="J3" t="n">
-        <v>49.5</v>
+        <v>39.15</v>
       </c>
     </row>
     <row r="4">
@@ -572,25 +572,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5059106753812636</v>
+        <v>0.5132657952069717</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01265577826124917</v>
+        <v>0.0278168424248229</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4888539023452518</v>
+        <v>0.5106158528770987</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7333333333333333</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>17.06666666666667</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>49.4</v>
+        <v>39.06666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -608,25 +608,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5045506535947712</v>
+        <v>0.5111813725490195</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008206482316325581</v>
+        <v>0.02303194097805513</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4969593906189927</v>
+        <v>0.5109079200307575</v>
       </c>
       <c r="G5" t="n">
-        <v>0.65</v>
+        <v>4.4</v>
       </c>
       <c r="H5" t="n">
-        <v>17.15</v>
+        <v>13.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>11.4</v>
       </c>
       <c r="J5" t="n">
-        <v>49.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="6">
@@ -644,25 +644,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5056915032679739</v>
+        <v>0.5113764705882353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01235085660890202</v>
+        <v>0.02363142844959597</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4990006535947712</v>
+        <v>0.5128310521594259</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>4.46</v>
       </c>
       <c r="H6" t="n">
-        <v>17.04</v>
+        <v>13.34</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6</v>
+        <v>11.56</v>
       </c>
       <c r="J6" t="n">
-        <v>49.3</v>
+        <v>39.34</v>
       </c>
     </row>
     <row r="7">
@@ -680,25 +680,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4980392156862745</v>
+        <v>0.528169934640523</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.01071706270203953</v>
+        <v>0.05955115889341751</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5227939254133027</v>
+        <v>0.5344464949378444</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="H7" t="n">
-        <v>17.7</v>
+        <v>13.3</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>50.4</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="8">
@@ -716,25 +716,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.5002254901960784</v>
+        <v>0.515562091503268</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00456736526582438</v>
+        <v>0.03225296509881172</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5101734589260541</v>
+        <v>0.5228228886325772</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="n">
-        <v>17.6</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>0.55</v>
+        <v>12.1</v>
       </c>
       <c r="J8" t="n">
-        <v>50.35</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="9">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5039978213507625</v>
+        <v>0.5185076252723312</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01587901566304778</v>
+        <v>0.03507693779862311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5090550215728993</v>
+        <v>0.5295828954675551</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3666666666666666</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43333333333333</v>
+        <v>12.8</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6333333333333333</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="J9" t="n">
-        <v>50.26666666666667</v>
+        <v>38.53333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -788,25 +788,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.5048366013071895</v>
+        <v>0.5154754901960784</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02340473129355786</v>
+        <v>0.02927378145699579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5129180123029604</v>
+        <v>0.5293447712418301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.375</v>
+        <v>4.775</v>
       </c>
       <c r="H10" t="n">
-        <v>17.425</v>
+        <v>13.025</v>
       </c>
       <c r="I10" t="n">
-        <v>0.575</v>
+        <v>12.05</v>
       </c>
       <c r="J10" t="n">
-        <v>50.325</v>
+        <v>38.85</v>
       </c>
     </row>
     <row r="11">
@@ -824,25 +824,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.5054666666666666</v>
+        <v>0.518802614379085</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02770159922781154</v>
+        <v>0.03701660237064406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5112420094835319</v>
+        <v>0.526758298090478</v>
       </c>
       <c r="G11" t="n">
-        <v>0.46</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>17.34</v>
+        <v>12.8</v>
       </c>
       <c r="I11" t="n">
-        <v>0.76</v>
+        <v>12.36</v>
       </c>
       <c r="J11" t="n">
-        <v>50.14</v>
+        <v>38.54</v>
       </c>
     </row>
   </sheetData>

--- a/FeatureAnalysis.xlsx
+++ b/FeatureAnalysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +532,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Alpha + Posterior</t>
+          <t>Posterior</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Alpha + Posterior + Behavioural</t>
+          <t>Posterior + Behavioural</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -604,7 +604,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Frontal + Alpha + Posterior</t>
+          <t>Frontal Posterior</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -712,7 +712,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Alpha + Posterior</t>
+          <t>Posterior</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -748,7 +748,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Alpha + Posterior + Behavioural</t>
+          <t>Posterior + Behavioural</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -784,7 +784,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Frontal + Alpha + Posterior</t>
+          <t>Frontal + Posterior</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -843,6 +843,834 @@
       </c>
       <c r="J11" t="n">
         <v>38.54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Correlation Matrix</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5137908496732027</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.02937629670076921</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5185803537101116</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J12" t="n">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Variance Threshold</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5026176470588235</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002969076270289729</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5130349224657182</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>40.75</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5175032679738562</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03316736479651928</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5294456619249007</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Label-Feature Positive Correlation</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5147173202614379</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.02831422778473312</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.5241663783160323</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13.225</v>
+      </c>
+      <c r="I15" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Label-Feature Top 5 Correlation</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5187333333333334</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.03552201823483114</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.532881558374984</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="J16" t="n">
+        <v>38.32</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Correlation Matrix</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5289673202614379</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.06686061672609669</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.543994617454825</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>40.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Variance Threshold</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5269150326797385</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0580852610783953</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5333754325259515</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>40.05</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ANOVA10</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5241764705882352</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.05077783207788041</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5402244435900723</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.133333333333334</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12.66666666666667</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12.23333333333333</v>
+      </c>
+      <c r="J19" t="n">
+        <v>38.66666666666666</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Label-Feature Positive Correlation</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5200751633986928</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.04162307181928164</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.533789600153787</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.175</v>
+      </c>
+      <c r="H20" t="n">
+        <v>12.625</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12.775</v>
+      </c>
+      <c r="J20" t="n">
+        <v>38.125</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Label-Feature Top 5 Correlation</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5257202614379085</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05075686836742393</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5388544662309368</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="H21" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="J21" t="n">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>RandomForestClassifier</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Select 3 from LOSO</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4770980392156863</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.04234684242388751</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4790943867743175</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CatBoostClassifier</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Select 3 from LOSO</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4955032679738562</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.01006048472153253</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4919442522106882</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="J23" t="n">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Correlation Matrix</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4986428571428572</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.002933983178893185</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5205187074829932</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Variance Threshold</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.4986190476190475</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.002922371222326059</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5205786564625851</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11.24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ANOVA</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5035714285714286</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.006489478314777084</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5169608843537415</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.826666666666667</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.293333333333333</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Label-Feature Positive Correlation</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5040059523809522</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.008087235311649328</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5164168792517007</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>25</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Label-Feature Top 5 Correlation</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5042428571428571</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.00819789801202382</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5141426870748299</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.288</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.832</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12.144</v>
+      </c>
+      <c r="J28" t="n">
+        <v>8.215999999999999</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Select 3 from LOSO</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5044047619047618</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00817501983907231</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5149284297052155</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.346666666666667</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.773333333333333</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12.29333333333333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>8.066666666666666</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5035748299319728</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.006591337109810703</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5156839164237124</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.177142857142857</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.942857142857143</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.84</v>
+      </c>
+      <c r="J30" t="n">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Posterior</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5068333333333332</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.01259613526644875</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5195969387755102</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I31" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8.59</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>25</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Posterior + Behavioural</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5088835978835979</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.01631897398610186</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5236112055933485</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.208888888888889</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.911111111111111</v>
+      </c>
+      <c r="I32" t="n">
+        <v>11.71111111111111</v>
+      </c>
+      <c r="J32" t="n">
+        <v>8.648888888888889</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Frontal + Posterior</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5079499999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.01456652838922561</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.523069387755102</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.104</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.448</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.912000000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>25</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Frontal</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5072121212121211</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.01306772734195753</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5167504638218923</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.043636363636364</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.076363636363636</v>
+      </c>
+      <c r="I34" t="n">
+        <v>11.29818181818182</v>
+      </c>
+      <c r="J34" t="n">
+        <v>9.061818181818182</v>
       </c>
     </row>
   </sheetData>
